--- a/MLB Stats 2018.xlsx
+++ b/MLB Stats 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5D32A-CA52-470F-8505-83417C9F88E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82FB64B-E672-4586-87A3-A9332791B930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5AA8BFC9-5B3F-5440-98CC-72184C77366C}"/>
+    <workbookView xWindow="-14400" yWindow="3135" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{5AA8BFC9-5B3F-5440-98CC-72184C77366C}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 League Pitching" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>#P</t>
   </si>
@@ -255,9 +255,6 @@
     <t>OBP</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -298,6 +295,12 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>wRC+</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1275,7 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1371,7 +1374,7 @@
         <v>31</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>32</v>
@@ -1380,10 +1383,10 @@
         <v>33</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -5742,10 +5745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D0F44A-463D-A643-8582-ADB8EFA216F2}">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5772,27 +5775,27 @@
     <col min="29" max="29" width="5.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
+      <c r="F1" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -5801,22 +5804,22 @@
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>19</v>
@@ -5824,19 +5827,19 @@
       <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -5861,10 +5864,15 @@
         <v>33</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -5955,8 +5963,11 @@
       <c r="AD2">
         <v>20.2</v>
       </c>
+      <c r="AE2" s="5">
+        <v>88</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -6047,8 +6058,11 @@
       <c r="AD3">
         <v>25</v>
       </c>
+      <c r="AE3" s="5">
+        <v>96</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -6139,8 +6153,11 @@
       <c r="AD4">
         <v>4.9000000000000004</v>
       </c>
+      <c r="AE4" s="5">
+        <v>87</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -6231,8 +6248,11 @@
       <c r="AD5">
         <v>32.6</v>
       </c>
+      <c r="AE5" s="5">
+        <v>111</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -6323,8 +6343,11 @@
       <c r="AD6">
         <v>25.6</v>
       </c>
+      <c r="AE6" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -6415,8 +6438,11 @@
       <c r="AD7">
         <v>10.4</v>
       </c>
+      <c r="AE7" s="5">
+        <v>92</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -6507,8 +6533,11 @@
       <c r="AD8">
         <v>17</v>
       </c>
+      <c r="AE8" s="5">
+        <v>94</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -6599,8 +6628,11 @@
       <c r="AD9">
         <v>25.5</v>
       </c>
+      <c r="AE9" s="5">
+        <v>106</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -6691,8 +6723,11 @@
       <c r="AD10">
         <v>14.7</v>
       </c>
+      <c r="AE10" s="5">
+        <v>88</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -6783,8 +6818,11 @@
       <c r="AD11">
         <v>4</v>
       </c>
+      <c r="AE11" s="5">
+        <v>83</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -6875,8 +6913,11 @@
       <c r="AD12">
         <v>32.700000000000003</v>
       </c>
+      <c r="AE12" s="5">
+        <v>110</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -6967,8 +7008,11 @@
       <c r="AD13">
         <v>8.4</v>
       </c>
+      <c r="AE13" s="5">
+        <v>87</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -7059,8 +7103,11 @@
       <c r="AD14">
         <v>20.6</v>
       </c>
+      <c r="AE14" s="5">
+        <v>98</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -7151,8 +7198,11 @@
       <c r="AD15">
         <v>34.799999999999997</v>
       </c>
+      <c r="AE15" s="5">
+        <v>111</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -7243,8 +7293,11 @@
       <c r="AD16">
         <v>12.2</v>
       </c>
+      <c r="AE16" s="5">
+        <v>83</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -7335,8 +7388,11 @@
       <c r="AD17">
         <v>28.1</v>
       </c>
+      <c r="AE17" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -7427,8 +7483,11 @@
       <c r="AD18">
         <v>16.5</v>
       </c>
+      <c r="AE18" s="5">
+        <v>96</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -7519,8 +7578,11 @@
       <c r="AD19">
         <v>16.100000000000001</v>
       </c>
+      <c r="AE19" s="5">
+        <v>94</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7611,8 +7673,11 @@
       <c r="AD20">
         <v>28.6</v>
       </c>
+      <c r="AE20" s="5">
+        <v>112</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -7703,8 +7768,11 @@
       <c r="AD21">
         <v>29.5</v>
       </c>
+      <c r="AE21" s="5">
+        <v>112</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -7795,8 +7863,11 @@
       <c r="AD22">
         <v>12</v>
       </c>
+      <c r="AE22" s="5">
+        <v>91</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -7887,8 +7958,11 @@
       <c r="AD23">
         <v>18.899999999999999</v>
       </c>
+      <c r="AE23" s="5">
+        <v>95</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -7979,8 +8053,11 @@
       <c r="AD24">
         <v>11.6</v>
       </c>
+      <c r="AE24" s="5">
+        <v>84</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -8071,8 +8148,11 @@
       <c r="AD25">
         <v>19.399999999999999</v>
       </c>
+      <c r="AE25" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -8163,8 +8243,11 @@
       <c r="AD26">
         <v>7.4</v>
       </c>
+      <c r="AE26" s="5">
+        <v>82</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -8255,8 +8338,11 @@
       <c r="AD27">
         <v>18.2</v>
       </c>
+      <c r="AE27" s="5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -8347,8 +8433,11 @@
       <c r="AD28">
         <v>26</v>
       </c>
+      <c r="AE28" s="5">
+        <v>107</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8439,8 +8528,11 @@
       <c r="AD29">
         <v>9.5</v>
       </c>
+      <c r="AE29" s="5">
+        <v>89</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -8531,8 +8623,11 @@
       <c r="AD30">
         <v>15.5</v>
       </c>
+      <c r="AE30" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -8623,8 +8718,11 @@
       <c r="AD31">
         <v>24.4</v>
       </c>
+      <c r="AE31" s="5">
+        <v>101</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -8715,6 +8813,10 @@
       <c r="AD32" s="9">
         <f>AVERAGE(AD2:AD31)</f>
         <v>19.010000000000002</v>
+      </c>
+      <c r="AE32" s="9">
+        <f>AVERAGE(AE2:AE31)</f>
+        <v>96.533333333333331</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
